--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -379,16 +379,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -708,8 +708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -733,12 +733,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" ht="15">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="3:9" ht="15">
       <c r="C5" s="2"/>
@@ -747,12 +747,12 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:9" ht="15">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="3:9" ht="15.75" thickBot="1">
       <c r="C7" s="2"/>
@@ -884,43 +884,45 @@
       </c>
     </row>
     <row r="17" spans="3:11" ht="15">
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>9</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="15">
-      <c r="C18" s="11">
+      <c r="C18" s="7">
         <v>10</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="3:11" ht="15">
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>11</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:11" ht="15">
-      <c r="C20" s="4"/>
+      <c r="C20" s="7">
+        <v>12</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -944,12 +946,12 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="3:11" ht="15">
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" thickBot="1">
       <c r="C25" s="2"/>
@@ -1087,16 +1089,16 @@
       </c>
     </row>
     <row r="35" spans="3:11" ht="15">
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>9</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1153,22 +1155,22 @@
       <c r="F41" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="3:11">
-      <c r="C42" s="12">
+      <c r="C42" s="8">
         <v>2</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="3:11">
       <c r="H43" s="1" t="s">
@@ -1200,10 +1202,10 @@
       </c>
     </row>
     <row r="49" spans="8:9">
-      <c r="H49" s="13">
+      <c r="H49" s="9">
         <v>2</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I49" s="9" t="s">
         <v>48</v>
       </c>
     </row>

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
-  <si>
-    <t>Modbus Setting Regs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -212,13 +209,55 @@
   </si>
   <si>
     <t>Stop  Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Only </t>
+  </si>
+  <si>
+    <t>Read /Write</t>
+  </si>
+  <si>
+    <t>Object type</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Coil</t>
+  </si>
+  <si>
+    <t>Read-write</t>
+  </si>
+  <si>
+    <t>1 bit</t>
+  </si>
+  <si>
+    <t>Discrete input</t>
+  </si>
+  <si>
+    <t>Read-only</t>
+  </si>
+  <si>
+    <t>Input register</t>
+  </si>
+  <si>
+    <t>16 bits</t>
+  </si>
+  <si>
+    <t>Holding register</t>
+  </si>
+  <si>
+    <t>Modbus Setting / Holding Regs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,8 +335,21 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +377,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2E2E2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -364,6 +428,141 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -371,7 +570,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -389,6 +588,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -706,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:K49"/>
+  <dimension ref="C4:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -724,163 +950,167 @@
     <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="1"/>
+    <col min="12" max="12" width="15.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12" style="1" customWidth="1"/>
     <col min="18" max="18" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:9" ht="15">
+    <row r="4" spans="3:10" ht="15">
       <c r="C4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="3:9" ht="15">
+    <row r="5" spans="3:10" ht="15">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="3:9" ht="15">
+    <row r="6" spans="3:10" ht="15">
       <c r="C6" s="11" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="3:9" ht="15.75" thickBot="1">
+    <row r="7" spans="3:10" ht="15.75" thickBot="1">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="3:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="3:10" ht="16.5" thickTop="1" thickBot="1">
       <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9" ht="15.75" thickTop="1">
+    </row>
+    <row r="9" spans="3:10" ht="15.75" thickTop="1">
       <c r="C9" s="4">
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9" ht="15">
+    </row>
+    <row r="10" spans="3:10" ht="15">
       <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9" ht="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" ht="15">
       <c r="C11" s="4">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="3:9" ht="15">
+        <v>40</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="15">
       <c r="C12" s="4">
         <v>4</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:9" ht="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="15">
       <c r="C13" s="4">
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="3:9" ht="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="15">
       <c r="C14" s="4">
         <v>6</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="15">
       <c r="C15" s="4">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" ht="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="15">
       <c r="C16" s="4">
         <v>8</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="3:11" ht="15">
@@ -888,13 +1118,13 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="15">
@@ -910,13 +1140,13 @@
         <v>11</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="20" spans="3:11" ht="15">
@@ -947,7 +1177,7 @@
     </row>
     <row r="24" spans="3:11" ht="15">
       <c r="C24" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -961,19 +1191,22 @@
     </row>
     <row r="26" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="C26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="3:11" ht="15.75" thickTop="1">
@@ -981,13 +1214,13 @@
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="3:11" ht="15">
@@ -995,25 +1228,25 @@
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H28" s="1">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="15">
@@ -1021,13 +1254,13 @@
         <v>3</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="15">
@@ -1037,7 +1270,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="3:11" ht="15">
@@ -1045,13 +1278,13 @@
         <v>5</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="15">
@@ -1061,7 +1294,7 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="15">
@@ -1069,13 +1302,13 @@
         <v>7</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="15">
@@ -1085,7 +1318,7 @@
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="15">
@@ -1093,13 +1326,13 @@
         <v>9</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E35" s="7">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="15">
@@ -1116,7 +1349,7 @@
     </row>
     <row r="38" spans="3:11" ht="15.75">
       <c r="C38" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1130,16 +1363,16 @@
     </row>
     <row r="40" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="C40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="16.5" thickTop="1">
@@ -1147,16 +1380,16 @@
         <v>1</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H41" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -1167,22 +1400,22 @@
         <v>2</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="3:11">
       <c r="H43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="H46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I46" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="47" spans="3:11">
@@ -1190,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="3:11">
@@ -1198,15 +1431,70 @@
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14" ht="15" thickBot="1">
       <c r="H49" s="9">
         <v>2</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14" ht="36">
+      <c r="L50" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N50" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14" ht="36">
+      <c r="L51" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N51" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14" ht="36">
+      <c r="L52" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N52" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="8:14" ht="36">
+      <c r="L53" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N53" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="8:14" ht="36.75" thickBot="1">
+      <c r="L54" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="M54" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N54" s="23" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -582,12 +582,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -615,6 +609,12 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -935,7 +935,7 @@
   <dimension ref="C4:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -960,12 +960,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="15">
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="3:10" ht="15">
       <c r="C5" s="2"/>
@@ -974,12 +974,12 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:10" ht="15">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="3:10" ht="15.75" thickBot="1">
       <c r="C7" s="2"/>
@@ -1176,12 +1176,12 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="3:11" ht="15">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="3:11" ht="15.75" thickBot="1">
       <c r="C25" s="2"/>
@@ -1388,12 +1388,12 @@
       <c r="F41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="14" t="s">
+      <c r="H41" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" s="8">
@@ -1409,6 +1409,9 @@
       <c r="H43" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="J43" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="46" spans="3:11">
       <c r="H46" s="1" t="s">
@@ -1442,58 +1445,58 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="8:14" ht="36">
-      <c r="L50" s="16" t="s">
+    <row r="50" spans="8:14" ht="18">
+      <c r="L50" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N50" s="18" t="s">
+      <c r="N50" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="8:14" ht="36">
-      <c r="L51" s="19" t="s">
+    <row r="51" spans="8:14" ht="18">
+      <c r="L51" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M51" s="15" t="s">
+      <c r="M51" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N51" s="20" t="s">
+      <c r="N51" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="52" spans="8:14" ht="36">
-      <c r="L52" s="19" t="s">
+      <c r="L52" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="M52" s="15" t="s">
+      <c r="M52" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N52" s="20" t="s">
+      <c r="N52" s="16" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="8:14" ht="36">
-      <c r="L53" s="19" t="s">
+      <c r="L53" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="15" t="s">
+      <c r="M53" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N53" s="20" t="s">
+      <c r="N53" s="16" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="54" spans="8:14" ht="36.75" thickBot="1">
-      <c r="L54" s="21" t="s">
+      <c r="L54" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="M54" s="22" t="s">
+      <c r="M54" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="23" t="s">
+      <c r="N54" s="19" t="s">
         <v>69</v>
       </c>
     </row>

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Modbus Setting / Holding Regs</t>
+  </si>
+  <si>
+    <t>https://ozeki.hu/p_5873-modbus-function-codes.html</t>
+  </si>
+  <si>
+    <t>Function codes</t>
   </si>
 </sst>
 </file>
@@ -934,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1340,12 +1346,18 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
+      <c r="I36" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="3:11" ht="15">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
+      <c r="I37" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" spans="3:11" ht="15.75">
       <c r="C38" s="5" t="s">

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -257,6 +257,12 @@
   </si>
   <si>
     <t>Function codes</t>
+  </si>
+  <si>
+    <t>Rev.Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Rev.Time Off </t>
   </si>
 </sst>
 </file>
@@ -938,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:N54"/>
+  <dimension ref="C4:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1159,365 +1165,403 @@
       <c r="C20" s="7">
         <v>12</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="3:11" ht="15">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="7">
+        <v>13</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="3:11" ht="15">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="7">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="3:11" ht="15">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="7">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="3:11" ht="15">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="7">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="3:11" ht="15">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="3:11" ht="15">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="3:11" ht="15">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="3:11" ht="15">
+      <c r="C28" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C26" s="3" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J30" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="15.75" thickTop="1">
-      <c r="C27" s="4">
+    <row r="31" spans="3:11" ht="15.75" thickTop="1">
+      <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" ht="15">
-      <c r="C28" s="4">
-        <v>2</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" ht="15">
-      <c r="C29" s="4">
-        <v>3</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11" ht="15">
-      <c r="C30" s="4">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" ht="15">
-      <c r="C31" s="4">
-        <v>5</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="15">
       <c r="C32" s="4">
-        <v>6</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="15">
       <c r="C33" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="15">
       <c r="C34" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" ht="15">
+      <c r="C35" s="4">
+        <v>5</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="15">
+      <c r="C36" s="4">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" ht="15">
+      <c r="C37" s="4">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" ht="15">
+      <c r="C38" s="4">
+        <v>8</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="3:11" ht="15">
-      <c r="C35" s="7">
+    <row r="39" spans="3:11" ht="15">
+      <c r="C39" s="7">
         <v>9</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E39" s="7">
         <v>1</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="3:11" ht="15">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="I36" s="1" t="s">
+    <row r="40" spans="3:11" ht="15">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="I40" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="3:11" ht="15">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="I37" s="1" t="s">
+    <row r="41" spans="3:11" ht="15">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="I41" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="3:11" ht="15.75">
-      <c r="C38" s="5" t="s">
+    <row r="42" spans="3:11" ht="15.75">
+      <c r="C42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C40" s="3" t="s">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C44" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:11" ht="16.5" thickTop="1">
-      <c r="C41" s="4">
+    <row r="45" spans="3:11" ht="16.5" thickTop="1">
+      <c r="C45" s="4">
         <v>1</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H45" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-    </row>
-    <row r="42" spans="3:11">
-      <c r="C42" s="8">
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+    </row>
+    <row r="46" spans="3:11">
+      <c r="C46" s="8">
         <v>2</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="3:11">
-      <c r="H43" s="1" t="s">
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="H47" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
-      <c r="H46" s="1" t="s">
+    <row r="50" spans="8:14">
+      <c r="H50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
-      <c r="H47" s="1">
+    <row r="51" spans="8:14">
+      <c r="H51" s="1">
         <v>1</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
-      <c r="H48" s="1">
+    <row r="52" spans="8:14">
+      <c r="H52" s="1">
         <v>0</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="8:14" ht="15" thickBot="1">
-      <c r="H49" s="9">
+    <row r="53" spans="8:14" ht="15" thickBot="1">
+      <c r="H53" s="9">
         <v>2</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="8:14" ht="18">
-      <c r="L50" s="12" t="s">
+    <row r="54" spans="8:14" ht="18">
+      <c r="L54" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="13" t="s">
+      <c r="M54" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N50" s="14" t="s">
+      <c r="N54" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="8:14" ht="18">
-      <c r="L51" s="15" t="s">
+    <row r="55" spans="8:14" ht="18">
+      <c r="L55" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M55" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N51" s="16" t="s">
+      <c r="N55" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="8:14" ht="36">
-      <c r="L52" s="15" t="s">
+    <row r="56" spans="8:14" ht="36">
+      <c r="L56" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M56" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N52" s="16" t="s">
+      <c r="N56" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="8:14" ht="36">
-      <c r="L53" s="15" t="s">
+    <row r="57" spans="8:14" ht="36">
+      <c r="L57" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M57" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="N53" s="16" t="s">
+      <c r="N57" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="8:14" ht="36.75" thickBot="1">
-      <c r="L54" s="17" t="s">
+    <row r="58" spans="8:14" ht="36.75" thickBot="1">
+      <c r="L58" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="M54" s="18" t="s">
+      <c r="M58" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N54" s="19" t="s">
+      <c r="N58" s="19" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H45:K45"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -262,7 +262,13 @@
     <t>Rev.Speed</t>
   </si>
   <si>
-    <t xml:space="preserve">Auto Rev.Time Off </t>
+    <t>Auto Rev.Time Off</t>
+  </si>
+  <si>
+    <t>0x40012</t>
+  </si>
+  <si>
+    <t>0x40013</t>
   </si>
 </sst>
 </file>
@@ -946,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1165,44 +1171,44 @@
       <c r="C20" s="7">
         <v>12</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="21" spans="3:11" ht="15">
       <c r="C21" s="7">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="3:11" ht="15">
-      <c r="C22" s="7">
-        <v>14</v>
-      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="3:11" ht="15">
-      <c r="C23" s="7">
-        <v>15</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="3:11" ht="15">
-      <c r="C24" s="7">
-        <v>16</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>0x40013</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>DOWN</t>
   </si>
 </sst>
 </file>
@@ -953,7 +959,7 @@
   <dimension ref="C4:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1468,12 +1474,30 @@
       <c r="F46" s="10"/>
     </row>
     <row r="47" spans="3:11">
+      <c r="C47" s="9">
+        <v>3</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
       <c r="H47" s="1" t="s">
         <v>42</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" s="9">
+        <v>4</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="50" spans="8:14">
       <c r="H50" s="1" t="s">

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -275,6 +275,15 @@
   </si>
   <si>
     <t>DOWN</t>
+  </si>
+  <si>
+    <t>0:Ext</t>
+  </si>
+  <si>
+    <t>1:Encoder</t>
+  </si>
+  <si>
+    <t>1=Stop</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -587,6 +596,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -594,7 +616,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -603,9 +625,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -639,6 +659,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -959,7 +983,7 @@
   <dimension ref="C4:N58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -984,12 +1008,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="15">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="3:10" ht="15">
       <c r="C5" s="2"/>
@@ -998,12 +1022,12 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:10" ht="15">
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="3:10" ht="15.75" thickBot="1">
       <c r="C7" s="2"/>
@@ -1138,66 +1162,66 @@
       </c>
     </row>
     <row r="17" spans="3:11" ht="15">
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>9</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" spans="3:11" ht="15">
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>10</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="3:11" ht="15">
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>11</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="3:11" ht="15">
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>12</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="15">
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>13</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1238,12 +1262,12 @@
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="3:11" ht="15">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="3:11" ht="15.75" thickBot="1">
       <c r="C29" s="2"/>
@@ -1384,17 +1408,23 @@
       </c>
     </row>
     <row r="39" spans="3:11" ht="15">
-      <c r="C39" s="7">
+      <c r="C39" s="4">
         <v>9</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7" t="s">
+      <c r="E39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>55</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="3:11" ht="15">
@@ -1429,21 +1459,21 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C44" s="3" t="s">
+    <row r="44" spans="3:11" ht="15.75" thickTop="1">
+      <c r="C44" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="16.5" thickTop="1">
+    <row r="45" spans="3:11" ht="15.75">
       <c r="C45" s="4">
         <v>1</v>
       </c>
@@ -1456,32 +1486,39 @@
       <c r="F45" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="23" t="s">
+      <c r="H45" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="8">
+      <c r="C46" s="23">
         <v>2</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="H46" s="1" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="47" spans="3:11">
-      <c r="C47" s="9">
+      <c r="C47" s="23">
         <v>3</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
+      <c r="E47" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="23"/>
       <c r="H47" s="1" t="s">
         <v>42</v>
       </c>
@@ -1490,16 +1527,28 @@
       </c>
     </row>
     <row r="48" spans="3:11">
-      <c r="C48" s="9">
+      <c r="C48" s="23">
         <v>4</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-    </row>
-    <row r="50" spans="8:14">
+      <c r="E48" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
       <c r="H50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1507,7 +1556,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="8:14">
+    <row r="51" spans="3:14">
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
       <c r="H51" s="1">
         <v>1</v>
       </c>
@@ -1515,7 +1568,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="8:14">
+    <row r="52" spans="3:14">
       <c r="H52" s="1">
         <v>0</v>
       </c>
@@ -1523,66 +1576,66 @@
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="8:14" ht="15" thickBot="1">
-      <c r="H53" s="9">
+    <row r="53" spans="3:14" ht="15" thickBot="1">
+      <c r="H53" s="8">
         <v>2</v>
       </c>
-      <c r="I53" s="9" t="s">
+      <c r="I53" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="8:14" ht="18">
-      <c r="L54" s="12" t="s">
+    <row r="54" spans="3:14" ht="18">
+      <c r="L54" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M54" s="13" t="s">
+      <c r="M54" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N54" s="14" t="s">
+      <c r="N54" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="8:14" ht="18">
-      <c r="L55" s="15" t="s">
+    <row r="55" spans="3:14" ht="18">
+      <c r="L55" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N55" s="16" t="s">
+      <c r="N55" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="8:14" ht="36">
-      <c r="L56" s="15" t="s">
+    <row r="56" spans="3:14" ht="36">
+      <c r="L56" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N56" s="16" t="s">
+      <c r="N56" s="14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="8:14" ht="36">
-      <c r="L57" s="15" t="s">
+    <row r="57" spans="3:14" ht="36">
+      <c r="L57" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N57" s="16" t="s">
+      <c r="N57" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="8:14" ht="36.75" thickBot="1">
-      <c r="L58" s="17" t="s">
+    <row r="58" spans="3:14" ht="36.75" thickBot="1">
+      <c r="L58" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M58" s="18" t="s">
+      <c r="M58" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N58" s="19" t="s">
+      <c r="N58" s="17" t="s">
         <v>69</v>
       </c>
     </row>

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -653,16 +653,16 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -980,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:N58"/>
+  <dimension ref="C4:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1008,12 +1008,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="15">
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
     </row>
     <row r="5" spans="3:10" ht="15">
       <c r="C5" s="2"/>
@@ -1022,12 +1022,12 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="3:10" ht="15">
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="3:10" ht="15.75" thickBot="1">
       <c r="C7" s="2"/>
@@ -1232,419 +1232,407 @@
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="3:11" ht="15">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="3:11" ht="15">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="3:11" ht="15">
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="3:11" ht="15">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="3:11" ht="15">
+      <c r="C26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickBot="1">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="3:11" ht="15">
-      <c r="C28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C30" s="3" t="s">
+    <row r="28" spans="3:11" ht="16.5" thickTop="1" thickBot="1">
+      <c r="C28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="J28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" ht="15.75" thickTop="1">
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" ht="15">
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" ht="15.75" thickTop="1">
+        <v>50</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" ht="15">
       <c r="C31" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="3:11" ht="15">
       <c r="C32" s="4">
-        <v>2</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>17</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="3:11" ht="15">
       <c r="C33" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="15">
       <c r="C34" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:11" ht="15">
       <c r="C35" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="15">
       <c r="C36" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="15">
       <c r="C37" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>35</v>
+        <v>55</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="15">
-      <c r="C38" s="4">
-        <v>8</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4" t="s">
-        <v>36</v>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="I38" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="15">
-      <c r="C39" s="4">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" ht="15">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="I40" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" ht="15">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="I39" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" ht="15.75">
+      <c r="C40" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="3:11" ht="15.75" thickBot="1">
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="I41" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="3:11" ht="15.75">
-      <c r="C42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="3:11" ht="15.75" thickTop="1">
-      <c r="C44" s="25" t="s">
+    </row>
+    <row r="42" spans="3:11" ht="15.75" thickTop="1">
+      <c r="C42" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D42" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E42" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F42" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="15.75">
-      <c r="C45" s="4">
+    <row r="43" spans="3:11" ht="15.75">
+      <c r="C43" s="4">
         <v>1</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F43" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="21" t="s">
+      <c r="H43" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="3:11">
+      <c r="C44" s="19">
+        <v>2</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F44" s="20"/>
+      <c r="H44" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="19">
+        <v>3</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="19"/>
+      <c r="H45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="46" spans="3:11">
-      <c r="C46" s="23">
+      <c r="C46" s="19">
+        <v>4</v>
+      </c>
+      <c r="D46" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="H48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="H49" s="1">
+        <v>1</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" ht="15" thickBot="1">
+      <c r="H51" s="8">
         <v>2</v>
       </c>
-      <c r="D46" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F46" s="24"/>
-      <c r="H46" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11">
-      <c r="C47" s="23">
-        <v>3</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F47" s="23"/>
-      <c r="H47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11">
-      <c r="C48" s="23">
-        <v>4</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F48" s="23"/>
-    </row>
-    <row r="49" spans="3:14">
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-    </row>
-    <row r="50" spans="3:14">
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="H50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14">
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="H51" s="1">
-        <v>1</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14">
-      <c r="H52" s="1">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" ht="15" thickBot="1">
-      <c r="H53" s="8">
-        <v>2</v>
-      </c>
-      <c r="I53" s="8" t="s">
+      <c r="I51" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="3:14" ht="18">
-      <c r="L54" s="10" t="s">
+    <row r="52" spans="3:14" ht="18">
+      <c r="L52" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M52" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N54" s="12" t="s">
+      <c r="N52" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="3:14" ht="18">
+    <row r="53" spans="3:14" ht="18">
+      <c r="L53" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N53" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" ht="36">
+      <c r="L54" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" ht="36">
       <c r="L55" s="13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M55" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" ht="36.75" thickBot="1">
+      <c r="L56" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="M56" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N55" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" ht="36">
-      <c r="L56" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M56" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N56" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" ht="36">
-      <c r="L57" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="M57" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N57" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" ht="36.75" thickBot="1">
-      <c r="L58" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="M58" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="N58" s="17" t="s">
+      <c r="N56" s="17" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C26:F26"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="H43:K43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -284,6 +284,12 @@
   </si>
   <si>
     <t>1=Stop</t>
+  </si>
+  <si>
+    <t>DP Set</t>
+  </si>
+  <si>
+    <t>0x30010</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -663,6 +669,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
@@ -980,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:N56"/>
+  <dimension ref="C4:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1416,120 +1423,128 @@
       </c>
     </row>
     <row r="38" spans="3:11" ht="15">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="C38" s="4">
+        <v>10</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="15">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="I39" s="1" t="s">
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="3:11" ht="15">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="I40" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="3:11" ht="15.75">
-      <c r="C40" s="5" t="s">
+    <row r="41" spans="3:11" ht="15.75">
+      <c r="C41" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-    </row>
-    <row r="41" spans="3:11" ht="15.75" thickBot="1">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="3:11" ht="15.75" thickTop="1">
-      <c r="C42" s="21" t="s">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="3:11" ht="15.75" thickBot="1">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="3:11" ht="15.75" thickTop="1">
+      <c r="C43" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D43" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F43" s="21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:11" ht="15.75">
-      <c r="C43" s="4">
+    <row r="44" spans="3:11" ht="15.75">
+      <c r="C44" s="4">
         <v>1</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H44" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-    </row>
-    <row r="44" spans="3:11">
-      <c r="C44" s="19">
-        <v>2</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F44" s="20"/>
-      <c r="H44" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
     </row>
     <row r="45" spans="3:11">
       <c r="C45" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="19"/>
+      <c r="F45" s="20"/>
       <c r="H45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="3:11">
       <c r="C46" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>27</v>
       </c>
       <c r="F46" s="19"/>
+      <c r="H46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="47" spans="3:11">
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="C47" s="19">
+        <v>4</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="F47" s="19"/>
     </row>
     <row r="48" spans="3:11">
@@ -1537,69 +1552,64 @@
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
-      <c r="H48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="49" spans="3:14">
       <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
-      <c r="H49" s="1">
+      <c r="H49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="H50" s="1">
         <v>1</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="3:14">
-      <c r="H50" s="1">
+    <row r="51" spans="3:14">
+      <c r="H51" s="1">
         <v>0</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="3:14" ht="15" thickBot="1">
-      <c r="H51" s="8">
+    <row r="52" spans="3:14" ht="15" thickBot="1">
+      <c r="H52" s="8">
         <v>2</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I52" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="3:14" ht="18">
-      <c r="L52" s="10" t="s">
+    <row r="53" spans="3:14" ht="18">
+      <c r="L53" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M53" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N52" s="12" t="s">
+      <c r="N53" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="3:14" ht="18">
-      <c r="L53" s="13" t="s">
+    <row r="54" spans="3:14" ht="18">
+      <c r="L54" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M53" s="9" t="s">
+      <c r="M54" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="N53" s="14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" ht="36">
-      <c r="L54" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M54" s="9" t="s">
-        <v>67</v>
       </c>
       <c r="N54" s="14" t="s">
         <v>65</v>
@@ -1607,23 +1617,34 @@
     </row>
     <row r="55" spans="3:14" ht="36">
       <c r="L55" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>67</v>
       </c>
       <c r="N55" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" ht="36">
+      <c r="L56" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="N56" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="3:14" ht="36.75" thickBot="1">
-      <c r="L56" s="15" t="s">
+    <row r="57" spans="3:14" ht="36.75" thickBot="1">
+      <c r="L57" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="M56" s="16" t="s">
+      <c r="M57" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="N56" s="17" t="s">
+      <c r="N57" s="17" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1632,7 +1653,7 @@
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="H44:K44"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sanjay/Modbus Regs.xlsx
+++ b/sanjay/Modbus Regs.xlsx
@@ -256,9 +256,6 @@
     <t>https://ozeki.hu/p_5873-modbus-function-codes.html</t>
   </si>
   <si>
-    <t>Function codes</t>
-  </si>
-  <si>
     <t>Rev.Speed</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>0x30010</t>
+  </si>
+  <si>
+    <t>3: Proximetry</t>
   </si>
 </sst>
 </file>
@@ -989,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1209,13 +1209,13 @@
         <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="3:11" ht="15">
@@ -1223,13 +1223,13 @@
         <v>13</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="3:11" ht="15">
@@ -1416,10 +1416,13 @@
         <v>55</v>
       </c>
       <c r="I37" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>81</v>
+      <c r="K37" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="15">
@@ -1427,16 +1430,13 @@
         <v>10</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="15">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F45" s="20"/>
       <c r="H45" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="3:11">
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>27</v>
@@ -1540,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>27</v>
